--- a/01_Input/00_CO Validation/Sao Tome & Principe - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Sao Tome & Principe - Energy Projects.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="149" documentId="11_4156F143B9153D69B31FE43BE94D4A6C783B1082" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82670750-F3D6-4B5B-A96F-946031285841}"/>
+  <xr:revisionPtr revIDLastSave="180" documentId="11_4156F143B9153D69B31FE43BE94D4A6C783B1082" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{491218D0-6E55-4DB3-A7F0-6598BEB752D3}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,6 +15,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="90">
   <si>
     <t>Project ID</t>
   </si>
@@ -113,11 +116,10 @@
     <t>VF</t>
   </si>
   <si>
+    <t>Energy (MW added)</t>
+  </si>
+  <si>
     <t>Increase in installed solar PV capacity and battery storage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 ,5
-</t>
   </si>
   <si>
     <t>this # would be a duplicate of above</t>
@@ -155,6 +157,9 @@
   </si>
   <si>
     <t xml:space="preserve">to SEH:  no direct beneficiaries of these studies. However, number of indirect beneficiaries is 220.000 </t>
+  </si>
+  <si>
+    <t>missing-STP-1</t>
   </si>
   <si>
     <t>Green Infrastructure for Health and Education in Sao Tome and Principe</t>
@@ -199,9 +204,6 @@
 76 people (social)
 315 people (commercial/PUE)
 </t>
-  </si>
-  <si>
-    <t>Energy (MW added)</t>
   </si>
   <si>
     <t xml:space="preserve">Solar PV: 1.2 MW
@@ -422,7 +424,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -512,11 +514,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -565,6 +609,39 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -884,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B12FE51-27CA-405B-900C-81ABBCFE8323}">
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -898,6 +975,7 @@
     <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
     <col min="9" max="9" width="60" customWidth="1"/>
+    <col min="13" max="13" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45.75">
@@ -928,7 +1006,7 @@
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="22" t="s">
@@ -960,151 +1038,198 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="119.25" customHeight="1">
-      <c r="A2" s="6">
+      <c r="A2" s="31">
         <v>6657</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="30">
         <v>2018349</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>22000</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>21800</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="14">
+      <c r="J2" s="6"/>
+      <c r="K2" s="23">
         <v>0.5</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
     </row>
     <row r="3" spans="1:21" ht="119.25" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="4" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="4">
+      <c r="G3" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="9">
         <v>1.2</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L3" t="s">
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
     </row>
     <row r="4" spans="1:21" ht="90" customHeight="1">
-      <c r="A4" s="6">
+      <c r="A4" s="31">
         <v>4602</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="30">
         <v>5274544</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="4" t="s">
+      <c r="H4" s="6"/>
+      <c r="I4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L4" t="s">
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
     </row>
     <row r="5" spans="1:21" ht="72" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="16" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="17" t="s">
+      <c r="H5" s="24"/>
+      <c r="I5" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="26" t="s">
         <v>36</v>
       </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
       <c r="U5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="59.25" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="6">
+      <c r="C6" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="30">
         <v>1072026</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="19">
+      <c r="F6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="6">
         <v>0</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="6">
         <v>220000</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="11"/>
-      <c r="M6" s="15"/>
+      <c r="I6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
     </row>
     <row r="7" spans="1:21" ht="30.75">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
-        <v>43</v>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="36" t="s">
+        <v>44</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -1112,8 +1237,18 @@
         <v>5578</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>44</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1136,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777BA1C2-C9DB-41AF-8924-3EB32E2045C1}">
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1153,16 +1288,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -1190,23 +1325,23 @@
         <v>11</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="119.25" customHeight="1">
-      <c r="A2" s="6">
+      <c r="A2" s="31">
         <v>6657</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="30">
         <v>2018349</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="27" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -1229,19 +1364,19 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="119.25" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="27"/>
       <c r="F3" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
         <v>27</v>
@@ -1263,7 +1398,7 @@
       <c r="D4" s="6">
         <v>5274544</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="27" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -1285,7 +1420,7 @@
       <c r="B5" s="8"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="16" t="s">
         <v>33</v>
       </c>
@@ -1304,21 +1439,21 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="59.25" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="A6" s="29"/>
+      <c r="B6" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="29">
         <v>1072026</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G6" s="19">
         <v>0</v>
@@ -1327,7 +1462,7 @@
         <v>220000</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J6" s="11"/>
       <c r="M6" s="15"/>
@@ -1338,7 +1473,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -1346,7 +1481,7 @@
         <v>5578</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1447,8 +1582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1511,7 +1646,7 @@
         <v>21</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G2" s="7">
         <v>22000</v>
@@ -1521,7 +1656,7 @@
         <v>43741</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="119.25" customHeight="1">
@@ -1536,13 +1671,13 @@
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>52</v>
@@ -1598,10 +1733,10 @@
     <row r="6" spans="1:10" ht="59.25" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" s="6">
         <v>1072026</v>
@@ -1610,7 +1745,7 @@
         <v>21</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -1751,7 +1886,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="42" t="s">
         <v>60</v>
       </c>
       <c r="B2" t="s">
@@ -1762,16 +1897,16 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="42"/>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="23"/>
+      <c r="A4" s="42"/>
       <c r="B4" t="s">
         <v>63</v>
       </c>
@@ -1780,7 +1915,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="43" t="s">
         <v>65</v>
       </c>
       <c r="B5" t="s">
@@ -1791,16 +1926,16 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="24"/>
+      <c r="A6" s="43"/>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="24"/>
+      <c r="A7" s="43"/>
       <c r="B7" t="s">
         <v>69</v>
       </c>
@@ -1809,16 +1944,16 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="24"/>
+      <c r="A8" s="43"/>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="24"/>
+      <c r="A9" s="43"/>
       <c r="B9" t="s">
         <v>72</v>
       </c>
@@ -1827,7 +1962,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="44" t="s">
         <v>74</v>
       </c>
       <c r="B10" t="s">
@@ -1838,7 +1973,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="25"/>
+      <c r="A11" s="44"/>
       <c r="B11" t="s">
         <v>77</v>
       </c>
@@ -1847,7 +1982,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="45" t="s">
         <v>79</v>
       </c>
       <c r="B12" t="s">
@@ -1858,7 +1993,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="26"/>
+      <c r="A13" s="45"/>
       <c r="B13" t="s">
         <v>82</v>
       </c>
@@ -1867,7 +2002,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="26"/>
+      <c r="A14" s="45"/>
       <c r="B14" t="s">
         <v>84</v>
       </c>
@@ -1909,15 +2044,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -2166,7 +2292,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
@@ -2204,14 +2330,23 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91C8BE1E-3C25-4FF7-B9CE-DEAFCAFA0837}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CFC5150-0BE3-475B-8D99-25D93908A851}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CFC5150-0BE3-475B-8D99-25D93908A851}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A7BB059-87E1-4B28-82A4-202DED84F982}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A7BB059-87E1-4B28-82A4-202DED84F982}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91C8BE1E-3C25-4FF7-B9CE-DEAFCAFA0837}"/>
 </file>
--- a/01_Input/00_CO Validation/Sao Tome & Principe - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Sao Tome & Principe - Energy Projects.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="180" documentId="11_4156F143B9153D69B31FE43BE94D4A6C783B1082" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{491218D0-6E55-4DB3-A7F0-6598BEB752D3}"/>
+  <xr:revisionPtr revIDLastSave="220" documentId="11_4156F143B9153D69B31FE43BE94D4A6C783B1082" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14214473-21EB-44B1-A795-27D9AF2A9A91}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="104">
   <si>
     <t>Project ID</t>
   </si>
@@ -69,10 +69,7 @@
     <t>Gender (% female)</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Comment</t>
+    <t>VF or Non-VF</t>
   </si>
   <si>
     <t>Tag</t>
@@ -91,6 +88,15 @@
   </si>
   <si>
     <t>Indirect Taxonomy</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Policy or Regulatory Framework</t>
+  </si>
+  <si>
+    <t>Policy Population</t>
   </si>
   <si>
     <t>National child project under the GEF Africa Minigrids Program</t>
@@ -116,6 +122,12 @@
     <t>VF</t>
   </si>
   <si>
+    <t>Close the gap on energy access</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
     <t>Energy (MW added)</t>
   </si>
   <si>
@@ -126,9 +138,6 @@
   </si>
   <si>
     <t>Promotion of environmentally sustainable and climate-resilient grid/isolated grid-based hydroelectric electricity through an integrated approach in Sao Tome and Principe.</t>
-  </si>
-  <si>
-    <t>Policy or Regulatory Framework</t>
   </si>
   <si>
     <t xml:space="preserve">1. Framework in place to enable the private sector to invest in grid/isolated-grid-based mini/small hydropower generation.
@@ -138,8 +147,18 @@
     <t>Framework elaborated in process of approval</t>
   </si>
   <si>
-    <t>This project is in its final phase.  It built the first solar plant in the country, as a pilot initiative, that produces 0.5 Kwp, which amounts to 10% of the country's  installed capacity.   
-This project also built the first institutional rooftop in the country</t>
+    <t xml:space="preserve">This project is in its final phase.  It built the first solar plant in the country, as a pilot initiative, that produces 0.5 Kwp, which amounts to 10% of the country's  installed capacity.   
+This project also built the first institutional rooftop in the country
+to SEH:  no direct beneficiaries of these studies. However, number of indirect beneficiaries is 220.000 </t>
+  </si>
+  <si>
+    <t>Renewable Energy</t>
+  </si>
+  <si>
+    <t>Financing Model</t>
+  </si>
+  <si>
+    <t>Regional</t>
   </si>
   <si>
     <t>2. Hydro-electricity generation 
@@ -153,12 +172,6 @@
     <t xml:space="preserve">The project did not include the installation of hydroelectricity production equipent. The project dedicated the resources to developing studies on 4 river basins with potential to become hydropower plants. </t>
   </si>
   <si>
-    <t>to the CO: Please estimate number of beneficiaries, or MW of renewable energy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to SEH:  no direct beneficiaries of these studies. However, number of indirect beneficiaries is 220.000 </t>
-  </si>
-  <si>
     <t>missing-STP-1</t>
   </si>
   <si>
@@ -177,10 +190,16 @@
     <t xml:space="preserve">7 health district centers covering all districts will benefit from this project. </t>
   </si>
   <si>
+    <t>Non-VF</t>
+  </si>
+  <si>
     <t>Education Services</t>
   </si>
   <si>
     <t>Besides, 5578 school children will also benefit from school lighting and school cantine improvementes thanks to the solar energy</t>
+  </si>
+  <si>
+    <t>Category</t>
   </si>
   <si>
     <t>Comments</t>
@@ -192,6 +211,16 @@
   </si>
   <si>
     <t>1.2 MW</t>
+  </si>
+  <si>
+    <t>This project is in its final phase.  It built the first solar plant in the country, as a pilot initiative, that produces 0.5 Kwp, which amounts to 10% of the country's  installed capacity.   
+This project also built the first institutional rooftop in the country</t>
+  </si>
+  <si>
+    <t>to the CO: Please estimate number of beneficiaries, or MW of renewable energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to SEH:  no direct beneficiaries of these studies. However, number of indirect beneficiaries is 220.000 </t>
   </si>
   <si>
     <t>n.a.</t>
@@ -226,46 +255,58 @@
     <t>7 health district centers covering all districts will benefit from this project. Besides, 5578 school children will also benefit from school lighting and school cantine improvementes thanks to the solar energy</t>
   </si>
   <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>Explanation</t>
-  </si>
-  <si>
-    <t>Access to Energy</t>
-  </si>
-  <si>
-    <t>Access to electricity (direct access to electricity, lighting,  heating, cooling etc.)</t>
-  </si>
-  <si>
-    <t>Access to energy through installed renewable energy capacity (solar PV, hydro, wind, etc. )</t>
+    <t>Number of people, disaggregated by sex, who gain access to clean electricity (direct access to electricity, lighting, cooling, etc.) </t>
+  </si>
+  <si>
+    <t>Number of MW installed capacity</t>
   </si>
   <si>
     <t>Clean Cooking</t>
   </si>
   <si>
-    <t>Access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.)</t>
-  </si>
-  <si>
-    <t>Productive Use of Energy</t>
-  </si>
-  <si>
-    <t>Agricultural Services</t>
-  </si>
-  <si>
-    <t>Access to agricultural energy services (irrigation with solar pumps, heating systems for processing food, etc. )</t>
-  </si>
-  <si>
-    <t>Access to health services powered by solar PV and energy efficient systems such as hospitals</t>
+    <t>Number of people who gain access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.).</t>
+  </si>
+  <si>
+    <t>Clean Heating</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean heating (direct access to clean electric heaters, clean fuels, etc.).</t>
+  </si>
+  <si>
+    <t>Agriculture and Food System</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean, affordable, and sustainable electricity for agricultural and food system activities (direct access to power machines for crop, processing, milling, grinding, de-husking, pressing, canning, sealing and packaging electricity, heating, cooling, solar water pumping for irrigation etc.) </t>
+  </si>
+  <si>
+    <t>Number of people who gain access to health care facilities (direct access to electricity and heating systems for clinics, hospitals, health centers etc.) </t>
   </si>
   <si>
     <t>Water Services</t>
   </si>
   <si>
-    <t>Access to solar water pumps</t>
-  </si>
-  <si>
-    <t>Access to education services trough clean energy systems</t>
+    <t>Number of people who gain access to water services (powering water pumps, water distributions, waste management, etc.).  </t>
+  </si>
+  <si>
+    <t>Number of people who gain access to education services through clean energy systems (including students, teachers, etc.) </t>
+  </si>
+  <si>
+    <t>Transportation and E-mobility Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from transport and e-mobility interventions (e.g., electric vehicles, charging stations, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Efficiency Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from energy efficiency interventions (e.g., building efficiency, industries, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Infrastructure Services</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from energy infrastructure interventions (streetlight, transmission, and distribution lines, etc.) </t>
   </si>
   <si>
     <t>Other Energy Services</t>
@@ -274,7 +315,10 @@
     <t>Access to other service (electric vehicles, industries efficiency etc.)</t>
   </si>
   <si>
-    <t>Market Development</t>
+    <t xml:space="preserve">Financing support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support for the development of market ecosystem </t>
   </si>
   <si>
     <t>Medium Enterprises</t>
@@ -289,13 +333,10 @@
     <t>Support for the development of small enterprises in the energy transition market</t>
   </si>
   <si>
-    <t>Capacity Building</t>
-  </si>
-  <si>
-    <t>Capacity Training</t>
-  </si>
-  <si>
-    <t>Individuals who participate in trainings for energy activities</t>
+    <t>Capacity Building Training</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from training for enterprises on the energy business and energy finance. </t>
   </si>
   <si>
     <t>Entrepreneurship Training</t>
@@ -304,16 +345,19 @@
     <t>Training for enterprises on the energy business is assumed to result in at least 100 direct beneficiaries</t>
   </si>
   <si>
+    <t>Market Intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume of investment (US dollars) leverage removing barriers to private and public investment in clean, reliable, affordable, and sustainable energy solutions and energy efficiency for social infrastructure, productive use of electricity and other services </t>
+  </si>
+  <si>
     <t>Campaign Participant</t>
   </si>
   <si>
     <t>Individuals who participate in advocacy and campaign on energy</t>
   </si>
   <si>
-    <t>Policy and Regulator Frameworks</t>
-  </si>
-  <si>
-    <t>Policies and regulatory framework can have far-reaching impacts on the energy access situation in countries</t>
+    <t xml:space="preserve">Number of people supported by policy and regulatory framework development on clean, affordable, and sustainable energy </t>
   </si>
   <si>
     <t>Other</t>
@@ -326,12 +370,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -367,8 +417,21 @@
       <name val="Helvetica Neue"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,68 +446,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAFFFFD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF42FFFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00E1DA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00DAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00BDB7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -560,100 +572,110 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -961,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B12FE51-27CA-405B-900C-81ABBCFE8323}">
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:AB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -975,289 +997,369 @@
     <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
     <col min="9" max="9" width="60" customWidth="1"/>
-    <col min="13" max="13" width="25.42578125" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45.75">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="S1" s="43" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="43" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" spans="1:21" ht="119.25" customHeight="1">
-      <c r="A2" s="31">
+      <c r="A2" s="26">
         <v>6657</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="25">
+        <v>2018349</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3">
+        <v>21800</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="L2" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="38"/>
+      <c r="N2" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="38"/>
+      <c r="U2" s="46"/>
+    </row>
+    <row r="3" spans="1:21" ht="119.25" customHeight="1">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="38"/>
+      <c r="N3" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="38"/>
+      <c r="U3" s="46"/>
+    </row>
+    <row r="4" spans="1:21" ht="90" customHeight="1">
+      <c r="A4" s="26">
+        <v>4602</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="25">
+        <v>5274544</v>
+      </c>
+      <c r="E4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="30">
-        <v>2018349</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="6">
-        <v>22000</v>
-      </c>
-      <c r="H2" s="6">
-        <v>21800</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-    </row>
-    <row r="3" spans="1:21" ht="119.25" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="F4" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="H3" s="9">
-        <v>1.2</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="M4" s="38"/>
+      <c r="N4" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-    </row>
-    <row r="4" spans="1:21" ht="90" customHeight="1">
-      <c r="A4" s="31">
-        <v>4602</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="30">
-        <v>5274544</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
+      <c r="O4" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="46"/>
+      <c r="T4" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" s="46">
+        <v>220000</v>
+      </c>
     </row>
     <row r="5" spans="1:21" ht="72" customHeight="1">
-      <c r="A5" s="33"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="U5" t="s">
-        <v>37</v>
-      </c>
+      <c r="A5" s="28"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="21"/>
+      <c r="I5" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="38"/>
+      <c r="N5" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="46"/>
     </row>
     <row r="6" spans="1:21" ht="59.25" customHeight="1">
-      <c r="A6" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="30">
+      <c r="A6" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="25">
         <v>1072026</v>
       </c>
-      <c r="E6" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="E6" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="3">
         <v>0</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="3">
         <v>220000</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-    </row>
-    <row r="7" spans="1:21" ht="30.75">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6">
+      <c r="I6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="38"/>
+      <c r="N6" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="46"/>
+    </row>
+    <row r="7" spans="1:21" ht="45.75">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
         <v>5578</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
+      <c r="I7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="38"/>
+      <c r="N7" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="46"/>
     </row>
   </sheetData>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q7" xr:uid="{8D326BA9-5253-43C5-B51F-1606895E5A0E}">
+      <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N7" xr:uid="{368F3046-85B6-411E-A264-5CD834836F32}">
+      <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O7" xr:uid="{14E013F2-38DB-4581-A915-4294AF26FBD8}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M7" xr:uid="{946F8288-C27B-4E23-B682-11D4CA95540C}">
+      <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T7" xr:uid="{F8963C5E-1D29-4FCC-933A-710860ADBC6B}">
+      <formula1>"National, Regional, City, Community"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P7" xr:uid="{81A1EAB3-CBC1-4A30-A12C-D120AD7E1962}">
+      <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L7" xr:uid="{70E60DE3-EFAE-4B22-931D-86D059AB8625}">
+      <formula1>"Non-VF, VF"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R7" xr:uid="{D2682008-E11B-4CE6-A9FB-97310EA505C1}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S7" xr:uid="{764EEE43-2C61-46D9-82D3-605D2D537D4C}">
+      <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Some Sources, Other, Unknown"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CFA4EB6B-DA2A-4BAF-A2E6-5FBA538EA81E}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E7</xm:sqref>
         </x14:dataValidation>
@@ -1288,278 +1390,278 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="13" t="s">
+      <c r="L1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="119.25" customHeight="1">
+      <c r="A2" s="26">
+        <v>6657</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="25">
+        <v>2018349</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="4">
+        <v>22000</v>
+      </c>
+      <c r="H2" s="4">
+        <v>21800</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="119.25" customHeight="1">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="90" customHeight="1">
+      <c r="A4" s="3">
+        <v>4602</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5274544</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="72" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="U5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="59.25" customHeight="1">
+      <c r="A6" s="24"/>
+      <c r="B6" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="24">
+        <v>1072026</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="119.25" customHeight="1">
-      <c r="A2" s="31">
-        <v>6657</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="30">
-        <v>2018349</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="7">
-        <v>22000</v>
-      </c>
-      <c r="H2" s="7">
-        <v>21800</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="119.25" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="G6" s="16">
+        <v>0</v>
+      </c>
+      <c r="H6" s="16">
+        <v>220000</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="90" customHeight="1">
-      <c r="A4" s="6">
-        <v>4602</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="6">
-        <v>5274544</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="72" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="U5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="59.25" customHeight="1">
-      <c r="A6" s="29"/>
-      <c r="B6" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="29" t="s">
+      <c r="J6" s="8"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" spans="1:21" ht="30.75">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="29">
-        <v>1072026</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0</v>
-      </c>
-      <c r="H6" s="19">
-        <v>220000</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="11"/>
-      <c r="M6" s="15"/>
-    </row>
-    <row r="7" spans="1:21" ht="30.75">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
         <v>5578</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>45</v>
+      <c r="I7" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1568,7 +1670,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AA6CEA6B-C138-4C42-B511-48F6992C7B93}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E9</xm:sqref>
         </x14:dataValidation>
@@ -1598,253 +1700,253 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="119.25" customHeight="1">
-      <c r="A2" s="6">
+      <c r="A2" s="3">
         <v>6657</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3">
         <v>1968349</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="7">
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="4">
         <v>22000</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="4">
         <f>21741+22000</f>
         <v>43741</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>51</v>
+      <c r="I2" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="119.25" customHeight="1">
-      <c r="A3" s="6">
+      <c r="A3" s="3">
         <v>6657</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="90" customHeight="1">
+      <c r="A4" s="3">
+        <v>4602</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5274544</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" ht="90" customHeight="1">
-      <c r="A4" s="6">
-        <v>4602</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="6">
-        <v>5274544</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>55</v>
+      <c r="F4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="72" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="4"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="59.25" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="3">
         <v>1072026</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="E6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="4">
         <v>0</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="4">
         <v>220000</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="11"/>
+      <c r="I6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1853,7 +1955,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E9</xm:sqref>
         </x14:dataValidation>
@@ -1865,180 +1967,194 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="52.7109375" customWidth="1"/>
+    <col min="1" max="2" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="42"/>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="42"/>
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B1" s="39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45.75">
+      <c r="A2" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="40" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="43"/>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="43"/>
-      <c r="B7" t="s">
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B4" s="40" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="43"/>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="5" spans="1:2" ht="30.75">
+      <c r="A5" s="47" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="43"/>
-      <c r="B9" t="s">
+      <c r="B5" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="91.5">
+      <c r="A6" s="47" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="44" t="s">
+      <c r="B6" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="45.75">
+      <c r="A7" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="45.75">
+      <c r="A8" s="47" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="44"/>
-      <c r="B11" t="s">
+      <c r="B8" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="45.75">
+      <c r="A9" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="40" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="45" t="s">
+    <row r="10" spans="1:2" ht="30.75">
+      <c r="A10" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B10" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="30.75">
+      <c r="A11" s="47" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="45"/>
-      <c r="B13" t="s">
+      <c r="B11" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="45.75">
+      <c r="A12" s="47" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="45"/>
-      <c r="B14" t="s">
+      <c r="B12" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="30.75">
+      <c r="A13" s="47" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
+      <c r="B13" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="47" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
+      <c r="B14" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="B16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="30.75">
+      <c r="A15" s="47" t="s">
         <v>89</v>
       </c>
+      <c r="B15" s="48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30.75">
+      <c r="A16" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30.75">
+      <c r="A17" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30.75">
+      <c r="A18" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="76.5">
+      <c r="A19" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30.75">
+      <c r="A20" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45.75">
+      <c r="A21" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30.75">
+      <c r="A22" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="48" t="s">
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
